--- a/ClientConsole/ClientConsole/TanChart.xlsx
+++ b/ClientConsole/ClientConsole/TanChart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="6735"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2278,11 +2278,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="187206656"/>
-        <c:axId val="187273984"/>
+        <c:axId val="185568256"/>
+        <c:axId val="187732736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="187206656"/>
+        <c:axId val="185568256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2292,7 +2292,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187273984"/>
+        <c:crossAx val="187732736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2300,7 +2300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187273984"/>
+        <c:axId val="187732736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -2313,7 +2313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187206656"/>
+        <c:crossAx val="185568256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
